--- a/php/exports/Mois.xlsx
+++ b/php/exports/Mois.xlsx
@@ -420,6 +420,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>0</v>
@@ -560,6 +577,21 @@
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
